--- a/medicine/Enfance/Yvette_de_Fonclare/Yvette_de_Fonclare.xlsx
+++ b/medicine/Enfance/Yvette_de_Fonclare/Yvette_de_Fonclare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvette Adam dite Vette de Fonclare, née en Lorraine, est une écrivaine spécialisée dans la littérature jeunesse et poétesse française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vette de Fonclare, diplômée de lettres classiques, fut d'abord professeur de français. Dans les années 1970, elle s'installe à Lambesc en Provence. Elle se tourne vers l'écriture et écrit plusieurs romans et de nombreux poèmes. Elle est la mère de l'écrivain Guillaume de Fonclare.
-L'un de ses poèmes, L'Autruche, en forme de calligramme, est étudié dans les manuels de français des classes de 6e de collège (Lettres vives, éditions Hachette éducation)[1].
+L'un de ses poèmes, L'Autruche, en forme de calligramme, est étudié dans les manuels de français des classes de 6e de collège (Lettres vives, éditions Hachette éducation).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Polémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1979, elle écrit un roman pour la jeunesse, L'Enfant des étoiles, dont l'histoire relate la rencontre entre des enfants et un jeune extraterrestre perdu sur la Terre. Le récit pourrait avoir été plagié, selon l'auteure Yvette de Fonclare, pour la réalisation du film E.T. l'extra-terrestre réalisé en 1982[2]. En février 1981, Yvette de Fonclare avait envoyé son manuscrit à la société The Walt Disney Company dans l'espoir de voir naître un film d'après son œuvre. La scénariste Melissa Mathison du film E.T. l'extra-terrestre, travaillait chez Walt Disney Company quand madame de Fonclare envoya son manuscrit. Cette dernière émet l'hypothèse du plagiat de son ouvrage si ce n'est une très forte coïncidence[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, elle écrit un roman pour la jeunesse, L'Enfant des étoiles, dont l'histoire relate la rencontre entre des enfants et un jeune extraterrestre perdu sur la Terre. Le récit pourrait avoir été plagié, selon l'auteure Yvette de Fonclare, pour la réalisation du film E.T. l'extra-terrestre réalisé en 1982. En février 1981, Yvette de Fonclare avait envoyé son manuscrit à la société The Walt Disney Company dans l'espoir de voir naître un film d'après son œuvre. La scénariste Melissa Mathison du film E.T. l'extra-terrestre, travaillait chez Walt Disney Company quand madame de Fonclare envoya son manuscrit. Cette dernière émet l'hypothèse du plagiat de son ouvrage si ce n'est une très forte coïncidence,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1979 : L'Enfant des étoiles, Bibliothèque rose, éditions Hachette.
 1990 : Les Fées sont folles à Farlidon, Bibliothèque rose, éditions Hachette.
